--- a/src/test/resources/excels/prueba.xlsx
+++ b/src/test/resources/excels/prueba.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22695" windowHeight="3705"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="22695" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>

--- a/src/test/resources/excels/prueba.xlsx
+++ b/src/test/resources/excels/prueba.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="22695" windowHeight="3705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="3405"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -26,9 +26,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2208danae</t>
-  </si>
-  <si>
     <t>nombreTablero</t>
   </si>
   <si>
@@ -57,12 +54,15 @@
   </si>
   <si>
     <t>Final de Pruebas de Automatizacion Appium</t>
+  </si>
+  <si>
+    <t>danae2208</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,7 +200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
     <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,54 +429,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    </row>
+    <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
